--- a/kek.xlsx
+++ b/kek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidiu.negoita\Documents\Dev\Licenta\mlld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC8340CA-77B7-4035-BE89-1071F0416751}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8615E4E-1AB9-4A41-A5CF-A04433E40266}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E517B963-68BF-4F0C-91F0-88AFEB3679AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>AVG</t>
   </si>
@@ -62,6 +62,9 @@
   <si>
     <t>f1-score</t>
   </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -287,24 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,6 +300,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,460 +633,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D47D9D9-085C-4B03-A2BB-D3000C2B2D42}">
-  <dimension ref="B1:AC7"/>
+  <dimension ref="B1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="5.85546875" customWidth="1"/>
+    <col min="3" max="38" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+    <row r="1" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="10"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="19"/>
     </row>
-    <row r="3" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="11" t="s">
+      <c r="S3" s="15"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="13"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="16"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="AD4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(D5,E5)</f>
-        <v>0.15500000000000003</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E5" s="1">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="4">
         <f>AVERAGE(G5,H5)</f>
+        <v>0.215</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.18</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.16</v>
-      </c>
       <c r="H5" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I5" s="6">
         <f>AVERAGE(J5,K5)</f>
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="J5" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.5</v>
+        <v>0.26</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.38</v>
       </c>
       <c r="L5" s="4">
         <f>AVERAGE(M5,N5)</f>
-        <v>0.255</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="M5" s="2">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="4">
         <f>AVERAGE(P5,Q5)</f>
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="P5" s="2">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="R5" s="6">
         <f>AVERAGE(S5,T5)</f>
+        <v>0.36</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="4">
+        <f>AVERAGE(V5,W5)</f>
+        <v>0.255</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X5" s="4">
+        <f>AVERAGE(Y5,Z5)</f>
+        <v>0.21</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AA5" s="6">
+        <f>AVERAGE(AB5,AC5)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="S5" s="2">
+      <c r="AB5" s="2">
         <v>0.24</v>
       </c>
-      <c r="T5" s="16">
+      <c r="AC5" s="10">
         <v>0.31</v>
       </c>
-      <c r="U5" s="6">
-        <f>AVERAGE(V5,W5)</f>
+      <c r="AD5" s="6">
+        <f>AVERAGE(AE5,AF5)</f>
         <v>0.37</v>
       </c>
-      <c r="V5" s="2">
+      <c r="AE5" s="2">
         <v>0.33</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AF5" s="1">
         <v>0.41</v>
       </c>
-      <c r="X5" s="4" t="e">
-        <f>AVERAGE(Y5,Z5)</f>
+      <c r="AG5" s="4" t="e">
+        <f>AVERAGE(AH5,AI5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="4" t="e">
-        <f>AVERAGE(AB5,AC5)</f>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="4" t="e">
+        <f>AVERAGE(AK5,AL5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="16"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="10"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" ref="C6:C7" si="0">AVERAGE(D6,E6)</f>
-        <v>0.60000000000000009</v>
+        <v>0.69500000000000006</v>
       </c>
       <c r="D6" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="E6" s="1">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F7" si="1">AVERAGE(G6,H6)</f>
-        <v>0.33</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G6" s="2">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="H6" s="1">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" ref="I6:I7" si="2">AVERAGE(J6,K6)</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J6" s="2">
         <v>0.01</v>
       </c>
-      <c r="K6" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" ref="L6:L7" si="3">AVERAGE(M6,N6)</f>
-        <v>0.05</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M6" s="2">
-        <v>0.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="O6" s="4">
         <f t="shared" ref="O6:O7" si="4">AVERAGE(P6,Q6)</f>
-        <v>0.38500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="P6" s="2">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" ref="R6:R7" si="5">AVERAGE(S6,T6)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T6" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.01</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" ref="U6:U7" si="6">AVERAGE(V6,W6)</f>
+        <v>0.05</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" ref="X6:X7" si="7">AVERAGE(Y6,Z6)</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" ref="AA6:AA7" si="8">AVERAGE(AB6,AC6)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ref="AD6:AD7" si="9">AVERAGE(AE6,AF6)</f>
         <v>0.01</v>
       </c>
-      <c r="V6" s="2">
+      <c r="AE6" s="2">
         <v>0.01</v>
       </c>
-      <c r="W6" s="1">
+      <c r="AF6" s="1">
         <v>0.01</v>
       </c>
-      <c r="X6" s="4" t="e">
-        <f t="shared" ref="X6:X7" si="7">AVERAGE(Y6,Z6)</f>
+      <c r="AG6" s="4" t="e">
+        <f t="shared" ref="AG6:AG7" si="10">AVERAGE(AH6,AI6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="4" t="e">
-        <f t="shared" ref="AA6:AA7" si="8">AVERAGE(AB6,AC6)</f>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="4" t="e">
+        <f t="shared" ref="AJ6:AJ7" si="11">AVERAGE(AK6,AL6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="16"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="10"/>
     </row>
-    <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="11">
         <v>0.25</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E7" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="11">
         <v>0.23</v>
       </c>
-      <c r="E7" s="18">
+      <c r="N7" s="12">
         <v>0.27</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
+      <c r="O7" s="5">
+        <f t="shared" si="4"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="G7" s="17">
+      <c r="P7" s="11">
         <v>0.22</v>
       </c>
-      <c r="H7" s="18">
+      <c r="Q7" s="12">
         <v>0.25</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="4"/>
-        <v>0.27</v>
-      </c>
-      <c r="P7" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0.28999999999999998</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="5"/>
-        <v>0.11</v>
-      </c>
-      <c r="S7" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="T7" s="19">
-        <v>0.11</v>
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0.01</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.11</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="9"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V7" s="17">
+      <c r="AE7" s="11">
         <v>0.01</v>
       </c>
-      <c r="W7" s="18">
+      <c r="AF7" s="12">
         <v>0.02</v>
       </c>
-      <c r="X7" s="5" t="e">
-        <f t="shared" si="7"/>
+      <c r="AG7" s="5" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="5" t="e">
-        <f t="shared" si="8"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="5" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="19"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="C2:K2"/>
+  <mergeCells count="16">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C2:K2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kek.xlsx
+++ b/kek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidiu.negoita\Documents\Dev\Licenta\mlld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8615E4E-1AB9-4A41-A5CF-A04433E40266}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB0829BD-29DE-4FD5-9965-419F4BAF0A29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E517B963-68BF-4F0C-91F0-88AFEB3679AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>AVG</t>
   </si>
@@ -300,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,7 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D47D9D9-085C-4B03-A2BB-D3000C2B2D42}">
-  <dimension ref="B1:AL7"/>
+  <dimension ref="B1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,112 +647,112 @@
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="17" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="14" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="14" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15" t="s">
+      <c r="V3" s="16"/>
+      <c r="W3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15" t="s">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="14" t="s">
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15" t="s">
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15" t="s">
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="17"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -1102,7 +1102,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="E7" s="12">
         <v>0.31</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
@@ -1215,8 +1215,117 @@
       <c r="AK7" s="11"/>
       <c r="AL7" s="13"/>
     </row>
+    <row r="12" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="O12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D14" s="6">
+        <f>AVERAGE(E14,F14)</f>
+        <v>0.54499999999999993</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O14" s="6">
+        <f>AVERAGE(P14,Q14)</f>
+        <v>0.48</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D16" si="12">AVERAGE(E15,F15)</f>
+        <v>0.245</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" ref="O15:O16" si="13">AVERAGE(P15,Q15)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="5">
+        <f t="shared" si="12"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="13"/>
+        <v>0.52</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
@@ -1224,15 +1333,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/kek.xlsx
+++ b/kek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidiu.negoita\Documents\Dev\Licenta\mlld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB0829BD-29DE-4FD5-9965-419F4BAF0A29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05F08702-E458-4F54-9BA2-05E1026443C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E517B963-68BF-4F0C-91F0-88AFEB3679AA}"/>
   </bookViews>
@@ -307,9 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +314,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +636,7 @@
   <dimension ref="B1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,50 +647,50 @@
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="18" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="18" t="s">
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="20"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15" t="s">
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="15" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
+      <c r="T3" s="20"/>
       <c r="U3" s="15" t="s">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
       </c>
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="17"/>
+      <c r="AC3" s="20"/>
       <c r="AD3" s="15" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
+      <c r="AL3" s="20"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -1250,13 +1250,13 @@
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D14" s="6">
         <f>AVERAGE(E14,F14)</f>
-        <v>0.54499999999999993</v>
+        <v>0.55499999999999994</v>
       </c>
       <c r="E14" s="2">
         <v>0.51</v>
       </c>
       <c r="F14" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="O14" s="6">
         <f>AVERAGE(P14,Q14)</f>
@@ -1272,13 +1272,13 @@
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <f t="shared" ref="D15:D16" si="12">AVERAGE(E15,F15)</f>
-        <v>0.245</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E15" s="2">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="F15" s="1">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15:O16" si="13">AVERAGE(P15,Q15)</f>
@@ -1294,13 +1294,13 @@
     <row r="16" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f t="shared" si="12"/>
-        <v>0.32500000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="E16" s="11">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="F16" s="12">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="13"/>
@@ -1315,6 +1315,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C3:E3"/>
@@ -1322,17 +1333,6 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/kek.xlsx
+++ b/kek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidiu.negoita\Documents\Dev\Licenta\mlld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05F08702-E458-4F54-9BA2-05E1026443C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4302EAC3-88BF-4E64-9523-198BE88C2735}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E517B963-68BF-4F0C-91F0-88AFEB3679AA}"/>
   </bookViews>
@@ -301,12 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,6 +308,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -636,7 +636,7 @@
   <dimension ref="B1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,111 +647,111 @@
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="17" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="17" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="17" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="19"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="20"/>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16" t="s">
+      <c r="V3" s="19"/>
+      <c r="W3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16" t="s">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
       <c r="AC3" s="20"/>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16" t="s">
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16" t="s">
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="16"/>
+      <c r="AK3" s="19"/>
       <c r="AL3" s="20"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
@@ -1216,16 +1216,16 @@
       <c r="AL7" s="13"/>
     </row>
     <row r="12" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="O12" s="15" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="O12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
@@ -1250,35 +1250,35 @@
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D14" s="6">
         <f>AVERAGE(E14,F14)</f>
-        <v>0.55499999999999994</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>0.51</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F14" s="1">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="O14" s="6">
         <f>AVERAGE(P14,Q14)</f>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="P14" s="2">
         <v>0.48</v>
       </c>
-      <c r="P14" s="2">
-        <v>0.44</v>
-      </c>
       <c r="Q14" s="1">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <f t="shared" ref="D15:D16" si="12">AVERAGE(E15,F15)</f>
-        <v>0.28999999999999998</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="E15" s="2">
-        <v>0.23</v>
+        <v>0.61</v>
       </c>
       <c r="F15" s="1">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15:O16" si="13">AVERAGE(P15,Q15)</f>
@@ -1294,13 +1294,13 @@
     <row r="16" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="E16" s="11">
-        <v>0.33</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F16" s="12">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="13"/>
@@ -1315,17 +1315,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C3:E3"/>
@@ -1333,6 +1322,17 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/kek.xlsx
+++ b/kek.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidiu.negoita\Documents\Dev\Licenta\mlld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mlld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4302EAC3-88BF-4E64-9523-198BE88C2735}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B5E371DA-1D68-48B6-B6AC-3ADB30218772}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E517B963-68BF-4F0C-91F0-88AFEB3679AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="14">
   <si>
     <t>AVG</t>
   </si>
@@ -65,12 +65,15 @@
   <si>
     <t>Support Vector Machine</t>
   </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +81,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +101,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -275,11 +290,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -301,6 +412,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,15 +427,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D47D9D9-085C-4B03-A2BB-D3000C2B2D42}">
-  <dimension ref="B1:AL16"/>
+  <dimension ref="B1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,112 +778,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="15" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="15" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="15" t="s">
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="17"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="19"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="20"/>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19" t="s">
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19" t="s">
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
+      <c r="AB3" s="16"/>
       <c r="AC3" s="20"/>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19" t="s">
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19" t="s">
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="19"/>
+      <c r="AK3" s="16"/>
       <c r="AL3" s="20"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
@@ -870,40 +1002,40 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(D5,E5)</f>
-        <v>0.17499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="D5" s="2">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="1">
         <v>0.2</v>
       </c>
       <c r="F5" s="4">
         <f>AVERAGE(G5,H5)</f>
-        <v>0.215</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I5" s="6">
         <f>AVERAGE(J5,K5)</f>
-        <v>0.32</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="J5" s="2">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K5" s="10">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="L5" s="4">
         <f>AVERAGE(M5,N5)</f>
-        <v>0.15500000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M5" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="N5" s="1">
         <v>0.17</v>
@@ -920,13 +1052,13 @@
       </c>
       <c r="R5" s="6">
         <f>AVERAGE(S5,T5)</f>
-        <v>0.36</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="S5" s="2">
         <v>0.22</v>
       </c>
       <c r="T5" s="10">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="U5" s="4">
         <f>AVERAGE(V5,W5)</f>
@@ -950,15 +1082,15 @@
       </c>
       <c r="AA5" s="6">
         <f>AVERAGE(AB5,AC5)</f>
-        <v>0.27500000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="AB5" s="2">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="AC5" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="AD5" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="AD5" s="30">
         <f>AVERAGE(AE5,AF5)</f>
         <v>0.37</v>
       </c>
@@ -968,18 +1100,26 @@
       <c r="AF5" s="1">
         <v>0.41</v>
       </c>
-      <c r="AG5" s="4" t="e">
+      <c r="AG5" s="4">
         <f>AVERAGE(AH5,AI5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="4" t="e">
+        <v>0.215</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AJ5" s="6">
         <f>AVERAGE(AK5,AL5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="10"/>
+        <v>0.38</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -987,33 +1127,33 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" ref="C6:C7" si="0">AVERAGE(D6,E6)</f>
-        <v>0.69500000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="E6" s="1">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F7" si="1">AVERAGE(G6,H6)</f>
-        <v>0.39500000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="G6" s="2">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="H6" s="1">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" ref="I6:I7" si="2">AVERAGE(J6,K6)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="J6" s="2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K6" s="10">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ref="L6:L7" si="3">AVERAGE(M6,N6)</f>
@@ -1037,13 +1177,13 @@
       </c>
       <c r="R6" s="4">
         <f t="shared" ref="R6:R7" si="5">AVERAGE(S6,T6)</f>
-        <v>0.01</v>
+        <v>0.115</v>
       </c>
       <c r="S6" s="2">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T6" s="10">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" ref="U6:U7" si="6">AVERAGE(V6,W6)</f>
@@ -1067,13 +1207,13 @@
       </c>
       <c r="AA6" s="4">
         <f t="shared" ref="AA6:AA7" si="8">AVERAGE(AB6,AC6)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB6" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AC6" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" ref="AD6:AD7" si="9">AVERAGE(AE6,AF6)</f>
@@ -1085,18 +1225,26 @@
       <c r="AF6" s="1">
         <v>0.01</v>
       </c>
-      <c r="AG6" s="4" t="e">
+      <c r="AG6" s="6">
         <f t="shared" ref="AG6:AG7" si="10">AVERAGE(AH6,AI6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="4" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AJ6" s="4">
         <f t="shared" ref="AJ6:AJ7" si="11">AVERAGE(AK6,AL6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="7" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1104,33 +1252,33 @@
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="D7" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E7" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="F7" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G7" s="11">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="H7" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="I7" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I7" s="31">
         <f t="shared" si="2"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J7" s="11">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="K7" s="13">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="3"/>
@@ -1154,43 +1302,43 @@
       </c>
       <c r="R7" s="5">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="S7" s="11">
-        <v>0.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T7" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="U7" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="U7" s="21">
         <f t="shared" si="6"/>
         <v>0.08</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="22">
         <v>0.08</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="23">
         <v>0.08</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="24">
         <f t="shared" si="7"/>
         <v>0.27</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="22">
         <v>0.25</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="21">
         <f t="shared" si="8"/>
-        <v>0.11</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>0.11</v>
+        <v>0.04</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>0.04</v>
       </c>
       <c r="AD7" s="5">
         <f t="shared" si="9"/>
@@ -1202,137 +1350,627 @@
       <c r="AF7" s="12">
         <v>0.02</v>
       </c>
-      <c r="AG7" s="5" t="e">
+      <c r="AG7" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="5" t="e">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AJ7" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="13"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="29"/>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <f>AVERAGE(D10,E10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="4">
+        <f>AVERAGE(G10,H10)</f>
+        <v>0.23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="I10" s="6">
+        <f>AVERAGE(J10,K10)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="L10" s="4">
+        <f>AVERAGE(M10,N10)</f>
+        <v>0.16</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="O10" s="4">
+        <f>AVERAGE(P10,Q10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="6">
+        <f>AVERAGE(S10,T10)</f>
+        <v>0.185</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="U10" s="4">
+        <f>AVERAGE(V10,W10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="X10" s="4">
+        <f>AVERAGE(Y10,Z10)</f>
+        <v>0.23</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AA10" s="6">
+        <f>AVERAGE(AB10,AC10)</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="AD10" s="6">
+        <f>AVERAGE(AE10,AF10)</f>
+        <v>0.27</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>AVERAGE(AH10,AI10)</f>
+        <v>0.185</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AJ10" s="30">
+        <f>AVERAGE(AK10,AL10)</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:C12" si="12">AVERAGE(D11,E11)</f>
+        <v>0.73</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:F12" si="13">AVERAGE(G11,H11)</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:I12" si="14">AVERAGE(J11,K11)</f>
+        <v>0.18</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" ref="L11:L12" si="15">AVERAGE(M11,N11)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" ref="O11:O12" si="16">AVERAGE(P11,Q11)</f>
+        <v>0.33</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" ref="R11:R12" si="17">AVERAGE(S11,T11)</f>
+        <v>0.31</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" ref="U11:U12" si="18">AVERAGE(V11,W11)</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="X11" s="30">
+        <f t="shared" ref="X11:X12" si="19">AVERAGE(Y11,Z11)</f>
+        <v>0.41</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" ref="AA11:AA12" si="20">AVERAGE(AB11,AC11)</f>
+        <v>0.375</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="AD11" s="30">
+        <f t="shared" ref="AD11:AD12" si="21">AVERAGE(AE11,AF11)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AG11" s="30">
+        <f t="shared" ref="AG11:AG12" si="22">AVERAGE(AH11,AI11)</f>
+        <v>0.34</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AJ11" s="6">
+        <f t="shared" ref="AJ11:AJ12" si="23">AVERAGE(AK11,AL11)</f>
+        <v>0.375</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="12" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="O12" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D14" s="6">
-        <f>AVERAGE(E14,F14)</f>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="12"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="13"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="14"/>
+        <v>0.22</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="13">
         <v>0.24</v>
       </c>
-      <c r="O14" s="6">
-        <f>AVERAGE(P14,Q14)</f>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.43</v>
+      <c r="L12" s="7">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="17"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="19"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="AA12" s="32">
+        <f t="shared" si="20"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AD12" s="5">
+        <f t="shared" si="21"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AG12" s="31">
+        <f t="shared" si="22"/>
+        <v>0.24</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="AJ12" s="33">
+        <f t="shared" si="23"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D15" s="4">
-        <f t="shared" ref="D15:D16" si="12">AVERAGE(E15,F15)</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" ref="O15:O16" si="13">AVERAGE(P15,Q15)</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.61</v>
+      <c r="AA15" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="5">
-        <f t="shared" si="12"/>
-        <v>0.52</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.48</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" si="13"/>
-        <v>0.52</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0.48</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>0.56000000000000005</v>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AA16" s="6">
+        <f>AVERAGE(AB16,AC16)</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA17" s="4">
+        <f t="shared" ref="AA17:AA18" si="24">AVERAGE(AB17,AC17)</f>
+        <v>0.22</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="18" spans="27:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA18" s="32">
+        <f t="shared" si="24"/>
+        <v>0.24</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Y3"/>
+  <mergeCells count="20">
+    <mergeCell ref="U8:AC8"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="AD8:AL8"/>
+    <mergeCell ref="C8:K8"/>
     <mergeCell ref="AD2:AL2"/>
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
